--- a/data/atm_cost_effectiveness.xlsx
+++ b/data/atm_cost_effectiveness.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EDE1D5-3D6D-4233-AF7D-0946DE0EEECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03ED8796-0F7A-4831-8B9E-B615BF439E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="time_series" sheetId="2" r:id="rId1"/>
@@ -51,9 +51,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -94,10 +91,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -115,10 +111,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -445,18 +437,18 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,81 +462,81 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2015</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>0.83</v>
       </c>
       <c r="C2" s="1">
         <v>112</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>3.2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2016</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0.84</v>
       </c>
       <c r="C3" s="1">
         <v>113</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>3.1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2017</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0.88</v>
       </c>
       <c r="C4" s="1">
         <v>114</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>3.1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2018</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>0.93</v>
       </c>
       <c r="C5" s="1">
         <v>115</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>3.1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2019</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>0.97</v>
       </c>
       <c r="C6" s="1">
         <v>118</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>3.1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2020</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>0.47</v>
       </c>
       <c r="C7" s="1">
@@ -561,26 +553,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c78a888a-83d8-49bb-8890-6eb97e8a3c0e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100763DCA751E988E49B18D7A5F3E2E0A59" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5b021fe13dcae56d252e7321283a3f3b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd" xmlns:ns3="c78a888a-83d8-49bb-8890-6eb97e8a3c0e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6d73ac3668dfd0d4084037886131f3a8" ns2:_="" ns3:_="">
     <xsd:import namespace="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd"/>
@@ -823,32 +795,27 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c78a888a-83d8-49bb-8890-6eb97e8a3c0e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B24F79C3-8935-4B5E-B87E-5CB91E86491B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1AB045E-407D-464E-B432-9331F7C58FF1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="c78a888a-83d8-49bb-8890-6eb97e8a3c0e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF1A408C-E108-40CF-8A32-298AAEA77511}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -865,4 +832,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1AB045E-407D-464E-B432-9331F7C58FF1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="c78a888a-83d8-49bb-8890-6eb97e8a3c0e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B24F79C3-8935-4B5E-B87E-5CB91E86491B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/atm_cost_effectiveness.xlsx
+++ b/data/atm_cost_effectiveness.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EDE1D5-3D6D-4233-AF7D-0946DE0EEECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2662E915-11C4-4758-A6B7-09654118520F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="time_series" sheetId="2" r:id="rId1"/>
@@ -51,9 +51,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -94,10 +91,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -115,10 +111,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -445,18 +437,18 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,81 +462,81 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2015</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>0.83</v>
       </c>
       <c r="C2" s="1">
         <v>112</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>3.2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2016</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0.84</v>
       </c>
       <c r="C3" s="1">
         <v>113</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>3.1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2017</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0.88</v>
       </c>
       <c r="C4" s="1">
         <v>114</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>3.1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2018</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>0.93</v>
       </c>
       <c r="C5" s="1">
         <v>115</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>3.1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2019</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>0.97</v>
       </c>
       <c r="C6" s="1">
         <v>118</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>3.1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2020</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>0.47</v>
       </c>
       <c r="C7" s="1">
@@ -561,26 +553,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c78a888a-83d8-49bb-8890-6eb97e8a3c0e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100763DCA751E988E49B18D7A5F3E2E0A59" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5b021fe13dcae56d252e7321283a3f3b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd" xmlns:ns3="c78a888a-83d8-49bb-8890-6eb97e8a3c0e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6d73ac3668dfd0d4084037886131f3a8" ns2:_="" ns3:_="">
     <xsd:import namespace="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd"/>
@@ -823,32 +795,27 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c78a888a-83d8-49bb-8890-6eb97e8a3c0e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B24F79C3-8935-4B5E-B87E-5CB91E86491B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1AB045E-407D-464E-B432-9331F7C58FF1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="c78a888a-83d8-49bb-8890-6eb97e8a3c0e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF1A408C-E108-40CF-8A32-298AAEA77511}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -865,4 +832,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1AB045E-407D-464E-B432-9331F7C58FF1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="c78a888a-83d8-49bb-8890-6eb97e8a3c0e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B24F79C3-8935-4B5E-B87E-5CB91E86491B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/atm_cost_effectiveness.xlsx
+++ b/data/atm_cost_effectiveness.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2662E915-11C4-4758-A6B7-09654118520F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23FC192-72D4-41C3-ACB8-03BF07CD58C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,10 +91,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -114,9 +113,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -154,9 +153,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -189,26 +188,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -241,26 +223,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -434,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,13 +431,13 @@
       <c r="A2" s="1">
         <v>2015</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>0.83</v>
       </c>
       <c r="C2" s="1">
         <v>112</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>3.2</v>
       </c>
     </row>
@@ -480,13 +445,13 @@
       <c r="A3" s="1">
         <v>2016</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>0.84</v>
       </c>
       <c r="C3" s="1">
         <v>113</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>3.1</v>
       </c>
     </row>
@@ -494,13 +459,13 @@
       <c r="A4" s="1">
         <v>2017</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>0.88</v>
       </c>
       <c r="C4" s="1">
         <v>114</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>3.1</v>
       </c>
     </row>
@@ -508,13 +473,13 @@
       <c r="A5" s="1">
         <v>2018</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>0.93</v>
       </c>
       <c r="C5" s="1">
         <v>115</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>3.1</v>
       </c>
     </row>
@@ -522,13 +487,13 @@
       <c r="A6" s="1">
         <v>2019</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>0.97</v>
       </c>
       <c r="C6" s="1">
         <v>118</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>3.1</v>
       </c>
     </row>
@@ -536,13 +501,27 @@
       <c r="A7" s="1">
         <v>2020</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>0.47</v>
       </c>
       <c r="C7" s="1">
         <v>131</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>126</v>
+      </c>
+      <c r="D8" s="1">
         <v>3.2</v>
       </c>
     </row>
@@ -553,6 +532,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c78a888a-83d8-49bb-8890-6eb97e8a3c0e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100763DCA751E988E49B18D7A5F3E2E0A59" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5b021fe13dcae56d252e7321283a3f3b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd" xmlns:ns3="c78a888a-83d8-49bb-8890-6eb97e8a3c0e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6d73ac3668dfd0d4084037886131f3a8" ns2:_="" ns3:_="">
     <xsd:import namespace="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd"/>
@@ -795,17 +785,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c78a888a-83d8-49bb-8890-6eb97e8a3c0e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -816,6 +795,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1AB045E-407D-464E-B432-9331F7C58FF1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="c78a888a-83d8-49bb-8890-6eb97e8a3c0e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF1A408C-E108-40CF-8A32-298AAEA77511}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -834,23 +830,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1AB045E-407D-464E-B432-9331F7C58FF1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="c78a888a-83d8-49bb-8890-6eb97e8a3c0e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B24F79C3-8935-4B5E-B87E-5CB91E86491B}">
   <ds:schemaRefs>
